--- a/dev/conversion_factors.xlsx
+++ b/dev/conversion_factors.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Wind_on_4.5MW" sheetId="4" r:id="rId4"/>
     <sheet name="Wind_on_750kW" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -524,12 +524,6 @@
 Technology:  Production of electric motor for BEV or HEV</t>
   </si>
   <si>
-    <t>This motor is finally used in electric bikes. Technology:  Electric bicycle with electric motor at wheel-hub and  LiMn2O4 battery pack, 100Wh/kg. https://electrek.co/2019/06/06/how-much-power-does-an-electric-bicycle-need/</t>
-  </si>
-  <si>
-    <t>A quick internet search finds electric scooter motors have around 0.5kW power. https://unagiscooters.com/uk/scooter-articles/electric-scooter-voltages-performance-guide/</t>
-  </si>
-  <si>
     <t>This dataset describes an electric motor used for an electric passenger car. It is based on direct information from the Swiss manufacturer Brusa. The electric motor has a maximal output power of about 100kW The entries are given as a function of kg device. The specific motor which was used for this dataset weights 53 kg.
 Technology:  This dataset is based on current, high-level standard.</t>
   </si>
@@ -665,6 +659,12 @@
   </si>
   <si>
     <t>https://www.firstsolar.com/-/media/First-Solar/Technical-Documents/Series-6-Datasheets/Series-6-Datasheet.ashx?la=en</t>
+  </si>
+  <si>
+    <t>Same as electric car</t>
+  </si>
+  <si>
+    <t>We divide the motor power by its weight. We obtain MWp/(kg of motor). This unit allows us to use the (kg of materials)/MW, as the reference flow unit is in kg</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1038,7 +1038,7 @@
     <col min="6" max="6" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1069,17 +1069,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <f>0.5/1000</f>
-        <v>5.0000000000000001E-4</v>
+        <f t="shared" ref="D2:D3" si="0">0.1/53</f>
+        <v>1.8867924528301887E-3</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1090,17 +1091,17 @@
         <v>10</v>
       </c>
       <c r="D3" s="4">
-        <f>1/1000</f>
-        <v>1E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.8867924528301887E-3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,17 +1112,17 @@
         <v>10</v>
       </c>
       <c r="D4" s="4">
-        <f>100/1000</f>
-        <v>0.1</v>
+        <f>0.1/53</f>
+        <v>1.8867924528301887E-3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1203,9 +1204,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1220,9 +1221,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1236,10 +1237,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -1434,7 +1435,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1450,7 +1451,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1462,12 +1463,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -1481,12 +1482,12 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -1500,12 +1501,12 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -1518,12 +1519,12 @@
         <v>2.24E-4</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -1536,12 +1537,12 @@
         <v>2.1000000000000001E-4</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -1554,12 +1555,12 @@
         <v>2.24E-4</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -1572,12 +1573,12 @@
         <v>1.2799999999999999E-4</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -1590,12 +1591,12 @@
         <v>7.1428571428571434E-5</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1608,12 +1609,12 @@
         <v>7.1428571428571434E-5</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -1626,12 +1627,12 @@
         <v>1.1111111111111113E-4</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -1644,12 +1645,12 @@
         <v>1.0833333333333334E-4</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -1662,12 +1663,12 @@
         <v>9.0277777777777774E-5</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
@@ -1680,12 +1681,12 @@
         <v>1.15E-4</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -1698,12 +1699,12 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -1716,15 +1717,15 @@
         <v>2.24E-4</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -1738,7 +1739,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -1752,7 +1753,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -1766,7 +1767,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -1780,7 +1781,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
@@ -1792,15 +1793,15 @@
         <v>1500</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
@@ -1814,7 +1815,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
@@ -1823,12 +1824,12 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>1000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
